--- a/flask-backend/users.xlsx
+++ b/flask-backend/users.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,72 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>def@gmail.com</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>+11234556678</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>def@123</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Khushi Garg</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>kgarg2647@gmail.com</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>+919548085743</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Qazwsx123</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>vasanth</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>vasanthakumar272004@gmail.com</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>+919025940848</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>vasanthV1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/flask-backend/users.xlsx
+++ b/flask-backend/users.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,6 +575,50 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Sanjay Sharma</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sanjayshanky@gmail.com</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>+15162898029</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>P@55cord</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Anup Dass</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>anupchela@gmail.com</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>+1828-320-1088</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Salemstar1#</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
